--- a/server/pharmadex2/src/test/resources/reportDataStructure.xlsx
+++ b/server/pharmadex2/src/test/resources/reportDataStructure.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="266">
   <si>
     <t/>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>descr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>+</t>
@@ -271,6 +274,18 @@
   </si>
   <si>
     <t>cover</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
   <si>
     <t>Building Photo</t>
@@ -958,6 +973,9 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
@@ -1043,11 +1061,17 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -1059,7 +1083,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="8" t="n">
         <v>0.0</v>
@@ -1071,22 +1095,34 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1112,13 +1148,16 @@
         <v>10.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
@@ -1129,6 +1168,12 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1144,7 +1189,7 @@
         <v>120.0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="8" t="n">
         <v>0.0</v>
@@ -1156,24 +1201,36 @@
         <v>20.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>0</v>
@@ -1197,13 +1254,16 @@
         <v>21.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>0</v>
@@ -1214,6 +1274,12 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1241,13 +1307,16 @@
         <v>30.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>0</v>
@@ -1258,6 +1327,12 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1285,13 +1360,16 @@
         <v>40.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>0</v>
@@ -1302,6 +1380,12 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1329,27 +1413,36 @@
         <v>50.0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
@@ -1373,23 +1466,32 @@
         <v>60.0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1405,7 +1507,7 @@
         <v>32.0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" s="8" t="n">
         <v>0.0</v>
@@ -1417,23 +1519,32 @@
         <v>0.0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1449,7 +1560,7 @@
         <v>12.0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" s="8" t="n">
         <v>0.0</v>
@@ -1461,30 +1572,39 @@
         <v>10.0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="8" t="n">
         <v>0.0</v>
@@ -1493,7 +1613,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" s="8" t="n">
         <v>0.0</v>
@@ -1505,13 +1625,16 @@
         <v>20.0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>0</v>
@@ -1521,8 +1644,17 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>0</v>
@@ -1546,30 +1678,39 @@
         <v>40.0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="8" t="n">
         <v>0.0</v>
@@ -1578,7 +1719,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I16" s="8" t="n">
         <v>0.0</v>
@@ -1590,13 +1731,16 @@
         <v>50.0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>0</v>
@@ -1606,8 +1750,17 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>0</v>
@@ -1631,13 +1784,16 @@
         <v>0.0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O17" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>0</v>
@@ -1648,10 +1804,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>0</v>
@@ -1675,13 +1837,16 @@
         <v>1.0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>0</v>
@@ -1692,10 +1857,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>0</v>
@@ -1719,24 +1890,36 @@
         <v>2.0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>0</v>
@@ -1760,24 +1943,36 @@
         <v>3.0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O20" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>0</v>
@@ -1801,13 +1996,16 @@
         <v>4.0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N21" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O21" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>0</v>
@@ -1832,19 +2030,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1859,10 +2060,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -1877,7 +2081,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -1945,6 +2149,12 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1972,13 +2182,16 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
@@ -1989,6 +2202,12 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2016,13 +2235,16 @@
         <v>1.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
@@ -2033,6 +2255,12 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2060,13 +2288,16 @@
         <v>3.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
@@ -2091,10 +2322,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -2109,7 +2343,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -2177,6 +2411,12 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2204,19 +2444,22 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2235,10 +2478,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -2253,7 +2499,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -2320,6 +2566,15 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2345,13 +2600,16 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
@@ -2362,6 +2620,12 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2389,23 +2653,32 @@
         <v>1.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2433,23 +2706,32 @@
         <v>2.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2477,13 +2759,16 @@
         <v>3.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>0</v>
@@ -2494,6 +2779,12 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2509,7 +2800,7 @@
         <v>35.0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I8" s="8" t="n">
         <v>0.0</v>
@@ -2521,13 +2812,16 @@
         <v>4.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>0</v>
@@ -2538,10 +2832,16 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>0</v>
@@ -2565,13 +2865,16 @@
         <v>5.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>0</v>
@@ -2582,6 +2885,12 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2609,13 +2918,16 @@
         <v>0.0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>0</v>
@@ -2626,6 +2938,12 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2641,7 +2959,7 @@
         <v>15.0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" s="8" t="n">
         <v>0.0</v>
@@ -2653,23 +2971,32 @@
         <v>1.0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2685,7 +3012,7 @@
         <v>80.0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" s="8" t="n">
         <v>0.0</v>
@@ -2697,23 +3024,32 @@
         <v>2.0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2741,16 +3077,16 @@
         <v>3.0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>0</v>
@@ -2760,6 +3096,15 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
@@ -2785,16 +3130,16 @@
         <v>4.0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>0</v>
@@ -2805,13 +3150,19 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F15" s="8" t="n">
         <v>0.0</v>
@@ -2820,7 +3171,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I15" s="8" t="n">
         <v>0.0</v>
@@ -2832,24 +3183,36 @@
         <v>5.0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O15" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>0</v>
@@ -2873,30 +3236,39 @@
         <v>7.0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>88.0</v>
@@ -2905,7 +3277,7 @@
         <v>132.0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I17" s="8" t="n">
         <v>0.0</v>
@@ -2917,27 +3289,36 @@
         <v>8.0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O17" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>0</v>
@@ -2961,13 +3342,16 @@
         <v>0.0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O18" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>0</v>
@@ -2977,8 +3361,17 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>0</v>
@@ -3002,13 +3395,16 @@
         <v>1.0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N19" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O19" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>0</v>
@@ -3018,8 +3414,17 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>0</v>
@@ -3031,7 +3436,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" s="8" t="n">
         <v>100.0</v>
@@ -3043,13 +3448,16 @@
         <v>2.0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O20" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>0</v>
@@ -3074,10 +3482,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -3092,7 +3503,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -3160,6 +3571,12 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3187,13 +3604,16 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
@@ -3204,6 +3624,12 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3231,13 +3657,16 @@
         <v>1.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
@@ -3248,6 +3677,12 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3275,13 +3710,16 @@
         <v>3.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
@@ -3306,10 +3744,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -3324,7 +3765,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -3392,13 +3833,19 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -3419,30 +3866,39 @@
         <v>1.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>0.0</v>
@@ -3451,7 +3907,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I5" s="8" t="n">
         <v>0.0</v>
@@ -3463,27 +3919,36 @@
         <v>2.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>0</v>
@@ -3507,30 +3972,39 @@
         <v>0.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>0.0</v>
@@ -3539,7 +4013,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I7" s="8" t="n">
         <v>0.0</v>
@@ -3551,24 +4025,36 @@
         <v>5.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
@@ -3592,23 +4078,32 @@
         <v>10.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O8" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3636,25 +4131,34 @@
         <v>20.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
@@ -3680,13 +4184,16 @@
         <v>50.0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>0</v>
@@ -3697,6 +4204,12 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -3724,16 +4237,19 @@
         <v>50.0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>0</v>
@@ -3755,19 +4271,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -3775,10 +4294,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -3789,10 +4308,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -3803,10 +4322,10 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -3817,10 +4336,10 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -3831,10 +4350,10 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -3845,10 +4364,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -3859,10 +4378,10 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
@@ -3873,10 +4392,10 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
@@ -3887,7 +4406,7 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>0</v>
@@ -3901,10 +4420,10 @@
         <v>1.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
@@ -3915,7 +4434,7 @@
         <v>1.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>0</v>
@@ -3936,19 +4455,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3963,19 +4485,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -3983,13 +4508,13 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -3997,10 +4522,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -4011,10 +4536,10 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -4032,19 +4557,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4059,19 +4587,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4086,10 +4617,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -4104,7 +4638,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -4171,8 +4705,17 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -4196,13 +4739,16 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
@@ -4213,13 +4759,19 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>0.0</v>
@@ -4228,7 +4780,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="8" t="n">
         <v>0.0</v>
@@ -4240,36 +4792,48 @@
         <v>0.0</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I6" s="8" t="n">
         <v>0.0</v>
@@ -4281,19 +4845,22 @@
         <v>1.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4312,10 +4879,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -4330,7 +4900,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -4397,11 +4967,20 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -4422,13 +5001,16 @@
         <v>1.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
@@ -4438,11 +5020,20 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>0.0</v>
@@ -4463,13 +5054,16 @@
         <v>2.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
@@ -4479,11 +5073,20 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0.0</v>
@@ -4504,19 +5107,22 @@
         <v>3.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4535,19 +5141,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4562,19 +5171,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -4582,10 +5194,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -4603,19 +5215,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4630,10 +5245,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -4648,7 +5266,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -4716,13 +5334,19 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -4743,24 +5367,36 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>0</v>
@@ -4784,13 +5420,16 @@
         <v>10.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
@@ -4801,13 +5440,19 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0.0</v>
@@ -4828,13 +5473,16 @@
         <v>20.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
@@ -4845,6 +5493,12 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -4872,13 +5526,16 @@
         <v>0.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>0</v>
@@ -4889,13 +5546,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>0.0</v>
@@ -4904,7 +5567,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I8" s="8" t="n">
         <v>0.0</v>
@@ -4916,23 +5579,32 @@
         <v>1.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -4960,13 +5632,16 @@
         <v>3.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>0</v>
@@ -4976,7 +5651,13 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5004,13 +5685,16 @@
         <v>4.0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>0</v>
@@ -5035,19 +5719,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -5055,7 +5742,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -5069,7 +5756,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -5083,7 +5770,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
@@ -5097,7 +5784,7 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
@@ -5111,10 +5798,10 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -5125,7 +5812,7 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>0</v>
@@ -5139,7 +5826,7 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>0</v>
@@ -5153,10 +5840,10 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
@@ -5167,7 +5854,7 @@
         <v>3.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>0</v>
@@ -5181,7 +5868,7 @@
         <v>3.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>0</v>
@@ -5195,7 +5882,7 @@
         <v>1.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>0</v>
@@ -5209,7 +5896,7 @@
         <v>1.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>0</v>
@@ -5230,10 +5917,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5248,7 +5938,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -5315,11 +6005,20 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -5340,19 +6039,22 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5371,19 +6073,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5398,19 +6103,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -5418,10 +6126,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -5432,10 +6140,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -5453,19 +6161,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -5473,10 +6184,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -5494,19 +6205,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -5514,10 +6228,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -5535,10 +6249,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5553,7 +6270,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -5620,8 +6337,17 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -5645,30 +6371,39 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>0.0</v>
@@ -5677,7 +6412,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="8" t="n">
         <v>0.0</v>
@@ -5689,19 +6424,22 @@
         <v>0.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5720,10 +6458,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5738,7 +6479,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -5805,11 +6546,20 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -5830,19 +6580,22 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5861,19 +6614,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5888,19 +6644,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5915,10 +6674,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5933,7 +6695,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -6001,13 +6763,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -6031,13 +6796,16 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
@@ -6048,10 +6816,16 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>0</v>
@@ -6075,13 +6849,16 @@
         <v>0.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
@@ -6106,19 +6883,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -6126,10 +6906,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -6140,10 +6920,10 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -6154,10 +6934,10 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -6168,10 +6948,10 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -6182,10 +6962,10 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -6196,10 +6976,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -6217,19 +6997,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -6237,7 +7020,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -6251,7 +7034,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -6265,7 +7048,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
@@ -6279,7 +7062,7 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
@@ -6293,7 +7076,7 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -6314,10 +7097,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -6332,7 +7118,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -6400,6 +7186,12 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -6427,13 +7219,16 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
@@ -6444,10 +7239,16 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>0</v>
@@ -6471,19 +7272,22 @@
         <v>1.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6502,10 +7306,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -6520,7 +7327,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -6588,6 +7395,12 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -6615,23 +7428,32 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -6659,23 +7481,32 @@
         <v>1.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -6703,13 +7534,16 @@
         <v>2.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>0</v>
@@ -6720,6 +7554,12 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -6747,13 +7587,16 @@
         <v>3.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>0</v>
@@ -6764,10 +7607,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
@@ -6791,13 +7640,16 @@
         <v>4.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>0</v>
@@ -6808,6 +7660,12 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -6835,13 +7693,16 @@
         <v>0.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>0</v>
@@ -6852,6 +7713,12 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -6879,13 +7746,16 @@
         <v>10.0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>0</v>
@@ -6896,6 +7766,12 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -6923,13 +7799,16 @@
         <v>20.0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>0</v>
@@ -6940,6 +7819,12 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -6967,13 +7852,16 @@
         <v>30.0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O12" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>0</v>
@@ -6983,6 +7871,15 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
@@ -7008,13 +7905,16 @@
         <v>40.0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O13" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>0</v>
@@ -7025,13 +7925,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F14" s="8" t="n">
         <v>0.0</v>
@@ -7040,7 +7946,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I14" s="8" t="n">
         <v>0.0</v>
@@ -7052,13 +7958,16 @@
         <v>50.0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O14" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>0</v>
@@ -7068,8 +7977,17 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>0</v>
@@ -7093,13 +8011,16 @@
         <v>55.0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>0</v>
@@ -7110,13 +8031,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F16" s="8" t="n">
         <v>88.0</v>
@@ -7125,7 +8052,7 @@
         <v>132.0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I16" s="8" t="n">
         <v>0.0</v>
@@ -7137,24 +8064,36 @@
         <v>60.0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O16" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>0</v>
@@ -7178,13 +8117,16 @@
         <v>0.0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="N17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="O17" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>0</v>
@@ -7209,19 +8151,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" width="32.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/server/pharmadex2/src/test/resources/reportDataStructure.xlsx
+++ b/server/pharmadex2/src/test/resources/reportDataStructure.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="262">
   <si>
     <t/>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Unique</t>
+  </si>
+  <si>
+    <t>PrefLabel</t>
   </si>
   <si>
     <t>varname</t>
@@ -954,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1045,16 +1048,19 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -1081,33 +1087,36 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -1122,45 +1131,48 @@
         <v>255.0</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -1187,33 +1199,36 @@
         <v>2.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -1240,33 +1255,36 @@
         <v>3.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -1293,39 +1311,42 @@
         <v>4.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="8" t="n">
         <v>0.0</v>
@@ -1334,7 +1355,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="8" t="n">
         <v>0.0</v>
@@ -1346,33 +1367,36 @@
         <v>5.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
@@ -1399,36 +1423,39 @@
         <v>0.0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
@@ -1452,33 +1479,36 @@
         <v>1.0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
@@ -1493,7 +1523,7 @@
         <v>35.0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" s="8" t="n">
         <v>0.0</v>
@@ -1505,33 +1535,36 @@
         <v>2.0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
@@ -1546,7 +1579,7 @@
         <v>32.0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" s="8" t="n">
         <v>0.0</v>
@@ -1558,33 +1591,36 @@
         <v>3.0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
@@ -1599,7 +1635,7 @@
         <v>64.0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" s="8" t="n">
         <v>0.0</v>
@@ -1611,36 +1647,39 @@
         <v>4.0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>0</v>
@@ -1664,36 +1703,39 @@
         <v>5.0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>0</v>
@@ -1717,36 +1759,39 @@
         <v>0.0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>0</v>
@@ -1770,36 +1815,39 @@
         <v>1.0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>0</v>
@@ -1823,36 +1871,39 @@
         <v>2.0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>0</v>
@@ -1876,36 +1927,39 @@
         <v>3.0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>0</v>
@@ -1929,36 +1983,39 @@
         <v>4.0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>0</v>
@@ -1970,7 +2027,7 @@
         <v>4.0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" s="8" t="n">
         <v>100.0</v>
@@ -1982,36 +2039,39 @@
         <v>5.0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>0</v>
@@ -2035,36 +2095,39 @@
         <v>6.0</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>0</v>
@@ -2088,36 +2151,39 @@
         <v>7.0</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>0</v>
@@ -2141,22 +2207,25 @@
         <v>8.0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2181,16 +2250,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -2198,10 +2267,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -2214,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2225,7 +2294,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -2240,7 +2309,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -2305,16 +2374,19 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -2341,21 +2413,24 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2370,7 +2445,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2381,7 +2456,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -2396,7 +2471,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -2461,16 +2536,19 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -2497,33 +2575,36 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -2550,33 +2631,36 @@
         <v>1.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -2603,33 +2687,36 @@
         <v>2.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -2656,33 +2743,36 @@
         <v>3.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -2709,33 +2799,36 @@
         <v>4.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -2762,33 +2855,36 @@
         <v>5.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>126</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
@@ -2815,33 +2911,36 @@
         <v>6.0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
@@ -2868,33 +2967,36 @@
         <v>1.0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
@@ -2921,33 +3023,36 @@
         <v>2.0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
@@ -2974,33 +3079,36 @@
         <v>4.0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
@@ -3027,33 +3135,36 @@
         <v>5.0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
@@ -3080,39 +3191,42 @@
         <v>6.0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>144</v>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F16" s="8" t="n">
         <v>0.0</v>
@@ -3133,36 +3247,39 @@
         <v>7.0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>0</v>
@@ -3186,36 +3303,39 @@
         <v>0.0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>0</v>
@@ -3239,21 +3359,24 @@
         <v>1.0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3268,7 +3391,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3279,7 +3402,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -3294,7 +3417,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -3359,19 +3482,22 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -3395,89 +3521,95 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>0</v>
@@ -3501,33 +3633,36 @@
         <v>0.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -3554,33 +3689,36 @@
         <v>1.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>156</v>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -3607,33 +3745,36 @@
         <v>2.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -3660,21 +3801,24 @@
         <v>3.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3700,16 +3844,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -3717,10 +3861,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -3731,10 +3875,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -3745,10 +3889,10 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -3759,10 +3903,10 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -3773,10 +3917,10 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -3787,10 +3931,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -3801,10 +3945,10 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
@@ -3815,10 +3959,10 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
@@ -3829,7 +3973,7 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>0</v>
@@ -3843,10 +3987,10 @@
         <v>1.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
@@ -3857,7 +4001,7 @@
         <v>1.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>0</v>
@@ -3884,16 +4028,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -3901,13 +4045,13 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
@@ -3915,10 +4059,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -3929,10 +4073,10 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -3945,7 +4089,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3956,7 +4100,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -3971,7 +4115,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -4036,19 +4180,22 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -4072,36 +4219,39 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>188</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>0</v>
@@ -4125,39 +4275,42 @@
         <v>0.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>189</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0.0</v>
@@ -4178,36 +4331,39 @@
         <v>0.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>0</v>
@@ -4231,21 +4387,24 @@
         <v>0.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4271,16 +4430,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -4288,10 +4447,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -4304,7 +4463,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4315,7 +4474,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -4330,7 +4489,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -4395,22 +4554,25 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -4431,39 +4593,42 @@
         <v>1.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>0.0</v>
@@ -4484,39 +4649,42 @@
         <v>2.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0.0</v>
@@ -4537,22 +4705,25 @@
         <v>3.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>201</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4577,16 +4748,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4607,16 +4778,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -4624,10 +4795,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -4640,7 +4811,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4651,7 +4822,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -4666,7 +4837,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -4731,22 +4902,25 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -4755,7 +4929,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I4" s="8" t="n">
         <v>0.0</v>
@@ -4767,21 +4941,24 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4807,16 +4984,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -4824,10 +5001,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -4838,10 +5015,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -4852,10 +5029,10 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -4866,10 +5043,10 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -4880,10 +5057,10 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -4894,10 +5071,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -4908,10 +5085,10 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
@@ -4922,10 +5099,10 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
@@ -4936,10 +5113,10 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
@@ -4950,10 +5127,10 @@
         <v>1.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
@@ -4966,7 +5143,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:Q4"/>
+  <dimension ref="A3:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5027,19 +5204,22 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -5051,7 +5231,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I4" s="8" t="n">
         <v>0.0</v>
@@ -5063,21 +5243,24 @@
         <v>1.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5088,7 +5271,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5099,7 +5282,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5114,7 +5297,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -5179,22 +5362,25 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -5215,22 +5401,25 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>232</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5255,16 +5444,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5274,7 +5463,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:Q9"/>
+  <dimension ref="A3:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5335,22 +5524,25 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -5371,33 +5563,36 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -5424,39 +5619,42 @@
         <v>0.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0.0</v>
@@ -5465,7 +5663,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I6" s="8" t="n">
         <v>0.0</v>
@@ -5477,33 +5675,36 @@
         <v>1.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>238</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -5530,33 +5731,36 @@
         <v>2.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>241</v>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -5583,33 +5787,36 @@
         <v>3.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -5636,21 +5843,24 @@
         <v>4.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5672,16 +5882,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -5689,10 +5899,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -5703,10 +5913,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -5730,16 +5940,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -5747,10 +5957,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -5763,7 +5973,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5774,7 +5984,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -5789,7 +5999,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -5854,19 +6064,22 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -5890,36 +6103,39 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>0</v>
@@ -5943,36 +6159,39 @@
         <v>1.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>253</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>0</v>
@@ -5996,39 +6215,42 @@
         <v>0.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>0.0</v>
@@ -6037,7 +6259,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" s="8" t="n">
         <v>0.0</v>
@@ -6049,22 +6271,25 @@
         <v>1.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>256</v>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6078,7 +6303,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6089,7 +6314,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -6104,7 +6329,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -6169,22 +6394,25 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -6205,22 +6433,25 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>260</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6234,7 +6465,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6245,7 +6476,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -6260,7 +6491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -6325,22 +6556,25 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -6361,36 +6595,39 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>0</v>
@@ -6414,36 +6651,39 @@
         <v>0.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>0</v>
@@ -6467,21 +6707,24 @@
         <v>1.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6507,16 +6750,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6537,16 +6780,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6567,16 +6810,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -6584,10 +6827,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -6598,10 +6841,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -6612,10 +6855,10 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -6626,10 +6869,10 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -6653,16 +6896,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -6670,10 +6913,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -6684,10 +6927,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -6711,16 +6954,16 @@
   <sheetData>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -6728,7 +6971,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -6742,7 +6985,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -6756,7 +6999,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
@@ -6770,7 +7013,7 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
@@ -6784,7 +7027,7 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -6800,7 +7043,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6811,7 +7054,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -6826,7 +7069,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -6891,16 +7134,19 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -6927,22 +7173,25 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>117</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6956,7 +7205,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6967,7 +7216,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -6982,7 +7231,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -7047,16 +7296,19 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -7083,33 +7335,36 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
@@ -7136,33 +7391,36 @@
         <v>1.0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -7189,33 +7447,36 @@
         <v>2.0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -7230,7 +7491,7 @@
         <v>20.0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" s="8" t="n">
         <v>0.0</v>
@@ -7242,33 +7503,36 @@
         <v>3.0</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -7283,7 +7547,7 @@
         <v>64.0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="8" t="n">
         <v>0.0</v>
@@ -7295,33 +7559,36 @@
         <v>4.0</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -7348,33 +7615,36 @@
         <v>5.0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>126</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
@@ -7401,33 +7671,36 @@
         <v>6.0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
@@ -7454,33 +7727,36 @@
         <v>1.0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
@@ -7507,33 +7783,36 @@
         <v>2.0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
@@ -7560,33 +7839,36 @@
         <v>4.0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
@@ -7613,33 +7895,36 @@
         <v>5.0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
@@ -7654,7 +7939,7 @@
         <v>35.0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="8" t="n">
         <v>0.0</v>
@@ -7666,39 +7951,42 @@
         <v>6.0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F16" s="8" t="n">
         <v>0.0</v>
@@ -7719,36 +8007,39 @@
         <v>7.0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>0</v>
@@ -7760,7 +8051,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="8" t="n">
         <v>100.0</v>
@@ -7772,21 +8063,24 @@
         <v>0.0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7801,7 +8095,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7812,7 +8106,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
@@ -7827,7 +8121,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
@@ -7892,22 +8186,25 @@
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>0.0</v>
@@ -7916,7 +8213,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I4" s="8" t="n">
         <v>0.0</v>
@@ -7928,21 +8225,24 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
